--- a/FileTest.xlsx
+++ b/FileTest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700"/>
@@ -11,7 +11,7 @@
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -342,12 +342,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C5:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="3:3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
